--- a/venv/main/output_x_1e-3.xlsx
+++ b/venv/main/output_x_1e-3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\managing multi-rooming\round 3\REcodes\venv\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CBA503-62C9-44AE-8350-0B78B9BE328E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F887C-2B8A-4A5A-BA25-A941652FE315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18054" windowHeight="4812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,19 +71,10 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,13 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,21 +423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="13.83984375" customWidth="1"/>
-    <col min="4" max="4" width="13.20703125" customWidth="1"/>
-    <col min="8" max="8" width="12.62890625" customWidth="1"/>
-    <col min="9" max="9" width="13.26171875" customWidth="1"/>
-    <col min="10" max="10" width="14.89453125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -743,7 +726,7 @@
         <v>0.38250000000000001</v>
       </c>
       <c r="E9">
-        <v>3.65765625E-2</v>
+        <v>3.6576562499999993E-2</v>
       </c>
       <c r="F9">
         <v>0.37</v>
@@ -835,37 +818,37 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>0.125</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>0.375</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0.375</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>3.515625E-2</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G12">
         <v>0.38250000000000001</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.37125000000000008</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="H12">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>3.4224609375000013E-2</v>
       </c>
     </row>
@@ -947,10 +930,10 @@
         <v>0.32750000000000001</v>
       </c>
       <c r="C15">
-        <v>0.33241406250000682</v>
+        <v>0.33241406250000571</v>
       </c>
       <c r="D15">
-        <v>7.6406249999993195E-2</v>
+        <v>7.6406249999994333E-2</v>
       </c>
       <c r="E15">
         <v>3.3783801269531261E-2</v>
@@ -1017,7 +1000,7 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="C17">
-        <v>0.38250000000000012</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1052,13 +1035,13 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C18">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
       <c r="F18">
         <v>0.35249999999999998</v>
@@ -1087,13 +1070,13 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C19">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
       <c r="F19">
         <v>0.35249999999999998</v>
@@ -1122,13 +1105,13 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C20">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
       <c r="F20">
         <v>0.35249999999999998</v>
@@ -1157,13 +1140,13 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C21">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
       <c r="F21">
         <v>0.35249999999999998</v>
@@ -1192,13 +1175,13 @@
         <v>0.35249999999999998</v>
       </c>
       <c r="C22">
-        <v>0.37125000000000008</v>
+        <v>0.37125000000000002</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.4224609375000013E-2</v>
+        <v>3.4224609374999999E-2</v>
       </c>
       <c r="F22">
         <v>0.35249999999999998</v>
@@ -1219,8 +1202,428 @@
         <v>3.4224609375000013E-2</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>0.15250000000000011</v>
+      </c>
+      <c r="B23">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>0.15500000000000011</v>
+      </c>
+      <c r="B24">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>0.15750000000000011</v>
+      </c>
+      <c r="B25">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.3175</v>
+      </c>
+      <c r="H25">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>0.16000000000000009</v>
+      </c>
+      <c r="B26">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.3125</v>
+      </c>
+      <c r="H26">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>0.16250000000000009</v>
+      </c>
+      <c r="B27">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.3075</v>
+      </c>
+      <c r="H27">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>0.16500000000000009</v>
+      </c>
+      <c r="B28">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C28">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>0.16750000000000009</v>
+      </c>
+      <c r="B29">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>0.1700000000000001</v>
+      </c>
+      <c r="B30">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C30">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="H30">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>0.1725000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="H32">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>0.1775000000000001</v>
+      </c>
+      <c r="B33">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>0.1800000000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.37125000000000002</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3.4224609374999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>